--- a/Analysis/LlmDispatchTool/Sonarqube/LlmDispatch-issues-report.xlsx
+++ b/Analysis/LlmDispatchTool/Sonarqube/LlmDispatch-issues-report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauduce\Desktop\New Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Oulu study\Period 3\Advanced quality\llm-message-dispatch-tool\Analysis\LlmDispatchTool\Sonarqube\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0C83E7-7B05-4A9E-A81A-580716374B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="510" windowWidth="13815" windowHeight="5835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TCD" sheetId="3" r:id="rId1"/>
@@ -21,13 +22,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId7"/>
+    <pivotCache cacheId="8" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="185">
   <si>
     <t>Rule</t>
   </si>
@@ -47,24 +48,12 @@
     <t>Line</t>
   </si>
   <si>
-    <t>Étiquettes de lignes</t>
-  </si>
-  <si>
-    <t>Total général</t>
-  </si>
-  <si>
     <t>Nombre de Message</t>
   </si>
   <si>
-    <t>(vide)</t>
-  </si>
-  <si>
     <t>Effort</t>
   </si>
   <si>
-    <t>Colonne1</t>
-  </si>
-  <si>
     <t>Language</t>
   </si>
   <si>
@@ -588,13 +577,18 @@
   </si>
   <si>
     <t>vite.config.js</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1091,55 +1085,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1180,14 +1174,17 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Gauduchon Erwan" refreshedDate="44313.646445833336" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Trung Nguyen" refreshedDate="45749.442056481479" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="6" xr:uid="{00000000-000A-0000-FFFF-FFFF07000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="selected"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Rule" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="6">
-        <m/>
+      <sharedItems containsBlank="1" count="9">
+        <s v="javascript:S1854"/>
+        <s v="javascript:S1481"/>
+        <s v="javascript:S6479"/>
+        <m u="1"/>
         <s v="python:FunctionComplexity" u="1"/>
         <s v="python:S1066" u="1"/>
         <s v="python:S134" u="1"/>
@@ -1195,9 +1192,12 @@
         <s v="python:S125" u="1"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Message" numFmtId="4">
-      <sharedItems containsNonDate="0" containsBlank="1" count="7">
-        <m/>
+    <cacheField name="Message" numFmtId="0">
+      <sharedItems containsBlank="1" count="10">
+        <s v="Remove this useless assignment to variable &quot;payload&quot;."/>
+        <s v="Remove the declaration of the unused 'payload' variable."/>
+        <s v="Do not use Array index in keys"/>
+        <m u="1"/>
         <s v="Remove this commented out code." u="1"/>
         <s v="Function has a complexity of 11 which is greater than 10 authorized." u="1"/>
         <s v="Function has a complexity of 47 which is greater than 10 authorized." u="1"/>
@@ -1207,36 +1207,38 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="2">
-        <m/>
-        <s v="CODE_SMELL" u="1"/>
+      <sharedItems containsBlank="1" count="2">
+        <s v="CODE_SMELL"/>
+        <m u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Severity" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="2">
-        <m/>
-        <s v="MAJOR" u="1"/>
+      <sharedItems containsBlank="1" count="3">
+        <s v="MAJOR"/>
+        <s v="MINOR"/>
+        <m u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Language" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
+      <sharedItems containsBlank="1" count="2">
+        <s v="JavaScript"/>
+        <m u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="File" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Line" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Effort" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Status" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Comments" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1248,65 +1250,133 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="LlmDispatch:frontend/src/pages/SendMessage.jsx"/>
+    <s v="72"/>
+    <s v="1min"/>
+    <s v="OPEN"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="LlmDispatch:frontend/src/pages/SendMessage.jsx"/>
+    <s v="72"/>
+    <s v="5min"/>
+    <s v="OPEN"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="LlmDispatch:frontend/src/pages/SendMessage.jsx"/>
+    <s v="118"/>
+    <s v="5min"/>
+    <s v="OPEN"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="LlmDispatch:frontend/src/pages/Message.jsx"/>
+    <s v="37"/>
+    <s v="5min"/>
+    <s v="OPEN"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="LlmDispatch:frontend/src/pages/SendMessage.jsx"/>
+    <s v="124"/>
+    <s v="5min"/>
+    <s v="OPEN"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="LlmDispatch:frontend/src/pages/Message.jsx"/>
+    <s v="45"/>
+    <s v="5min"/>
+    <s v="OPEN"/>
+    <s v=""/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="synthesis" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="synthesis" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
+      <items count="10">
         <item m="1" x="4"/>
         <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item m="1" x="6"/>
         <item m="1" x="3"/>
         <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="8">
+      <items count="11">
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
         <item m="1" x="4"/>
-        <item m="1" x="2"/>
         <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item m="1" x="1"/>
         <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
+        <item x="0"/>
         <item m="1" x="1"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item m="1" x="1"/>
+      <items count="4">
         <item x="0"/>
+        <item m="1" x="2"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="1">
+      <items count="2">
+        <item m="1" x="1"/>
         <item x="0"/>
       </items>
     </pivotField>
@@ -1323,21 +1393,36 @@
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="11">
     <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
       <x/>
     </i>
-    <i r="1">
-      <x v="1"/>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="4">
+      <x v="7"/>
+    </i>
+    <i r="3">
+      <x v="8"/>
+    </i>
+    <i r="4">
+      <x v="9"/>
     </i>
     <i r="2">
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i r="3">
-      <x v="5"/>
+      <x v="7"/>
     </i>
     <i r="4">
-      <x v="6"/>
+      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
@@ -1362,122 +1447,122 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="selected" displayName="selected" ref="A1:J7" insertRow="1" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:J2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="selected" displayName="selected" ref="A1:J7" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:J7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Rule"/>
-    <tableColumn id="2" name="Message" dataDxfId="6"/>
-    <tableColumn id="3" name="Type"/>
-    <tableColumn id="4" name="Severity"/>
-    <tableColumn id="8" name="Language"/>
-    <tableColumn id="5" name="File"/>
-    <tableColumn id="6" name="Line"/>
-    <tableColumn id="7" name="Effort"/>
-    <tableColumn id="9" name="Status"/>
-    <tableColumn id="10" name="Comments"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Rule"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Message" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Severity"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Language"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="File"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Line"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Effort"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Status"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="all" displayName="all" ref="A1:AB7" insertRow="1" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:A2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="all" displayName="all" ref="A1:AB7" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:AB7" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="28">
-    <tableColumn id="1" name="updateDate"/>
-    <tableColumn id="2" name="line"/>
-    <tableColumn id="3" name="rule"/>
-    <tableColumn id="4" name="project"/>
-    <tableColumn id="5" name="effort"/>
-    <tableColumn id="6" name="type"/>
-    <tableColumn id="7" name="cleanCodeAttribute"/>
-    <tableColumn id="8" name="issueStatus"/>
-    <tableColumn id="9" name="flows"/>
-    <tableColumn id="10" name="scope"/>
-    <tableColumn id="11" name="key"/>
-    <tableColumn id="12" name="severity"/>
-    <tableColumn id="13" name="comments"/>
-    <tableColumn id="14" name="author"/>
-    <tableColumn id="15" name="cleanCodeAttributeCategory"/>
-    <tableColumn id="16" name="messageFormattings"/>
-    <tableColumn id="17" name="impacts"/>
-    <tableColumn id="18" name="message"/>
-    <tableColumn id="19" name="creationDate"/>
-    <tableColumn id="20" name="quickFixAvailable"/>
-    <tableColumn id="21" name="tags"/>
-    <tableColumn id="22" name="codeVariants"/>
-    <tableColumn id="23" name="component"/>
-    <tableColumn id="24" name="prioritizedRule"/>
-    <tableColumn id="25" name="textRange"/>
-    <tableColumn id="26" name="debt"/>
-    <tableColumn id="27" name="hash"/>
-    <tableColumn id="28" name="status"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="updateDate"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="line"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="rule"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="project"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="effort"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="type"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="cleanCodeAttribute"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="issueStatus"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="flows"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="scope"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="key"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="severity"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="comments"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="author"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="cleanCodeAttributeCategory"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="messageFormattings"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="impacts"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="message"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="creationDate"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="quickFixAvailable"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="tags"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="codeVariants"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="component"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="prioritizedRule"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="textRange"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0100-00001A000000}" name="debt"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0100-00001B000000}" name="hash"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0100-00001C000000}" name="status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="unconfirmed" displayName="unconfirmed" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:J2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="unconfirmed" displayName="unconfirmed" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:J2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Rule"/>
-    <tableColumn id="2" name="Message" dataDxfId="3"/>
-    <tableColumn id="3" name="Type"/>
-    <tableColumn id="4" name="Severity"/>
-    <tableColumn id="8" name="Language"/>
-    <tableColumn id="5" name="File"/>
-    <tableColumn id="6" name="Line"/>
-    <tableColumn id="7" name="Effort"/>
-    <tableColumn id="9" name="Status"/>
-    <tableColumn id="10" name="Comments"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Rule"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Message" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Severity"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Language"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="File"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Line"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Effort"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Status"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="hotspots" displayName="hotspots" ref="A1:K2" insertRow="1" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:K2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="hotspots" displayName="hotspots" ref="A1:K2" insertRow="1" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Rule"/>
-    <tableColumn id="2" name="Message" dataDxfId="1"/>
-    <tableColumn id="3" name="Category"/>
-    <tableColumn id="12" name="Priority"/>
-    <tableColumn id="4" name="Severity"/>
-    <tableColumn id="8" name="Language"/>
-    <tableColumn id="5" name="File"/>
-    <tableColumn id="6" name="Line"/>
-    <tableColumn id="9" name="Status"/>
-    <tableColumn id="13" name="Resolution"/>
-    <tableColumn id="10" name="Comments"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Rule"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Message" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Category"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Priority"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Severity"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Language"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="File"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Line"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Status"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Resolution"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="metrics" displayName="metrics" ref="A1:I19" insertRow="1" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:A2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="metrics" displayName="metrics" ref="A1:I19" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:I19" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Path"/>
-    <tableColumn id="2" name="coverage"/>
-    <tableColumn id="3" name="complexity"/>
-    <tableColumn id="4" name="duplicated_lines_density"/>
-    <tableColumn id="5" name="cognitive_complexity"/>
-    <tableColumn id="6" name="ncloc"/>
-    <tableColumn id="7" name="ID"/>
-    <tableColumn id="8" name="comment_lines_density"/>
-    <tableColumn id="9" name="Name"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Path"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="coverage"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="complexity"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="duplicated_lines_density"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="cognitive_complexity"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="ncloc"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="ID"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="comment_lines_density"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1515,9 +1600,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1552,7 +1637,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1587,7 +1672,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1760,63 +1845,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="pivotTable"/>
-  <dimension ref="A3:B9"/>
+  <dimension ref="A3:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.42578125" collapsed="false"/>
+    <col min="1" max="1" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="B5" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="B6" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7"/>
+      <c r="A8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7"/>
+      <c r="A9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="9">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1824,21 +1959,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="selectedIssues"/>
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="63.28515625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="13.5703125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="32.140625" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="25.7109375" collapsed="false"/>
+    <col min="2" max="2" width="63.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1855,7 +1990,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -1864,205 +1999,205 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J4" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J6" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
         <v>34</v>
       </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="H7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="I7" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="J7" t="s">
         <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2074,7 +2209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="allIssues"/>
   <dimension ref="A1:AB7"/>
   <sheetViews>
@@ -2082,616 +2217,616 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="13.5703125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="14.5703125" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.28515625" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="14.140625" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="12.140625" collapsed="false"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>48</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>49</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>50</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>51</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>52</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>55</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>56</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>57</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>58</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>59</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>60</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>61</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>62</v>
       </c>
-      <c r="Y1" t="s">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>63</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="B2" t="s">
         <v>64</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>65</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" t="s">
+      <c r="J2" t="s">
         <v>68</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
         <v>69</v>
       </c>
-      <c r="E2" t="s">
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="S3" t="s">
+        <v>73</v>
+      </c>
+      <c r="T3" t="s">
+        <v>74</v>
+      </c>
+      <c r="U3" t="s">
+        <v>81</v>
+      </c>
+      <c r="V3" t="s">
+        <v>67</v>
+      </c>
+      <c r="W3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" t="s">
         <v>70</v>
       </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="O4" t="s">
         <v>71</v>
       </c>
-      <c r="J2" t="s">
+      <c r="P4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" t="s">
         <v>72</v>
       </c>
-      <c r="K2" t="s">
+      <c r="R4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" t="s">
         <v>73</v>
       </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="T4" t="s">
+        <v>74</v>
+      </c>
+      <c r="U4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" t="s">
         <v>71</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" t="s">
+        <v>90</v>
+      </c>
+      <c r="T5" t="s">
         <v>74</v>
       </c>
-      <c r="O2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="U5" t="s">
+        <v>84</v>
+      </c>
+      <c r="V5" t="s">
+        <v>67</v>
+      </c>
+      <c r="W5" t="s">
+        <v>31</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="P6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>72</v>
+      </c>
+      <c r="R6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" t="s">
+        <v>90</v>
+      </c>
+      <c r="T6" t="s">
+        <v>74</v>
+      </c>
+      <c r="U6" t="s">
+        <v>84</v>
+      </c>
+      <c r="V6" t="s">
+        <v>67</v>
+      </c>
+      <c r="W6" t="s">
         <v>19</v>
       </c>
-      <c r="S2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="X6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
         <v>71</v>
       </c>
-      <c r="W2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="P7" t="s">
         <v>67</v>
       </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="Q7" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" t="s">
+        <v>99</v>
+      </c>
+      <c r="T7" t="s">
+        <v>74</v>
+      </c>
+      <c r="U7" t="s">
+        <v>84</v>
+      </c>
+      <c r="V7" t="s">
+        <v>67</v>
+      </c>
+      <c r="W7" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="X7" t="s">
         <v>74</v>
       </c>
-      <c r="O3" t="s">
-        <v>75</v>
-      </c>
-      <c r="P3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>84</v>
-      </c>
-      <c r="R3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" t="s">
-        <v>77</v>
-      </c>
-      <c r="T3" t="s">
-        <v>78</v>
-      </c>
-      <c r="U3" t="s">
-        <v>85</v>
-      </c>
-      <c r="V3" t="s">
-        <v>71</v>
-      </c>
-      <c r="W3" t="s">
-        <v>23</v>
-      </c>
-      <c r="X3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O4" t="s">
-        <v>75</v>
-      </c>
-      <c r="P4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>76</v>
-      </c>
-      <c r="R4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" t="s">
-        <v>77</v>
-      </c>
-      <c r="T4" t="s">
-        <v>78</v>
-      </c>
-      <c r="U4" t="s">
-        <v>88</v>
-      </c>
-      <c r="V4" t="s">
-        <v>71</v>
-      </c>
-      <c r="W4" t="s">
-        <v>23</v>
-      </c>
-      <c r="X4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" t="s">
-        <v>93</v>
-      </c>
-      <c r="O5" t="s">
-        <v>75</v>
-      </c>
-      <c r="P5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" t="s">
-        <v>94</v>
-      </c>
-      <c r="T5" t="s">
-        <v>78</v>
-      </c>
-      <c r="U5" t="s">
-        <v>88</v>
-      </c>
-      <c r="V5" t="s">
-        <v>71</v>
-      </c>
-      <c r="W5" t="s">
-        <v>35</v>
-      </c>
-      <c r="X5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" t="s">
-        <v>72</v>
-      </c>
-      <c r="K6" t="s">
-        <v>98</v>
-      </c>
-      <c r="L6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O6" t="s">
-        <v>75</v>
-      </c>
-      <c r="P6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" t="s">
-        <v>94</v>
-      </c>
-      <c r="T6" t="s">
-        <v>78</v>
-      </c>
-      <c r="U6" t="s">
-        <v>88</v>
-      </c>
-      <c r="V6" t="s">
-        <v>71</v>
-      </c>
-      <c r="W6" t="s">
-        <v>23</v>
-      </c>
-      <c r="X6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="Y7" t="s">
         <v>100</v>
       </c>
-      <c r="AB6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="Z7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA7" t="s">
         <v>101</v>
       </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N7" t="s">
-        <v>93</v>
-      </c>
-      <c r="O7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>76</v>
-      </c>
-      <c r="R7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" t="s">
-        <v>103</v>
-      </c>
-      <c r="T7" t="s">
-        <v>78</v>
-      </c>
-      <c r="U7" t="s">
-        <v>88</v>
-      </c>
-      <c r="V7" t="s">
-        <v>71</v>
-      </c>
-      <c r="W7" t="s">
-        <v>35</v>
-      </c>
-      <c r="X7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>105</v>
-      </c>
       <c r="AB7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2704,20 +2839,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="63.28515625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="13.5703125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="32.140625" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="25.7109375" collapsed="false"/>
+    <col min="2" max="2" width="63.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2734,7 +2869,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -2743,20 +2878,20 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="8"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
+      <c r="B3" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2768,18 +2903,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="63.28515625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="13.5703125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="32.140625" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="25.7109375" collapsed="false"/>
+    <col min="2" max="2" width="63.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2790,16 +2925,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -2808,20 +2943,20 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="8"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
+      <c r="B3" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2832,556 +2967,551 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="13.5703125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="14.5703125" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.28515625" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="14.140625" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="12.140625" collapsed="false"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" t="s">
         <v>106</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>108</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>109</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>110</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>111</v>
       </c>
-      <c r="G1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="D2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" t="s">
         <v>113</v>
       </c>
-      <c r="I1" t="s">
+      <c r="F2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" t="s">
         <v>115</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>116</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
         <v>117</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" t="s">
         <v>118</v>
       </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>120</v>
       </c>
-      <c r="B3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" t="s">
         <v>121</v>
       </c>
-      <c r="D3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" t="s">
         <v>117</v>
       </c>
-      <c r="F3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5"/>
-      <c r="C5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="F14" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>161</v>
+      </c>
+      <c r="I14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" t="s">
         <v>129</v>
       </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>135</v>
-      </c>
-      <c r="I6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
+        <v>165</v>
+      </c>
+      <c r="I15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s">
+        <v>170</v>
+      </c>
+      <c r="I16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s">
+        <v>175</v>
+      </c>
+      <c r="I17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" t="s">
         <v>136</v>
       </c>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8"/>
-      <c r="C8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" t="s">
-        <v>148</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>149</v>
-      </c>
-      <c r="I10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" t="s">
-        <v>159</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" t="s">
-        <v>160</v>
-      </c>
-      <c r="I13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" t="s">
-        <v>164</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" t="s">
-        <v>165</v>
-      </c>
-      <c r="I14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="D18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" t="s">
         <v>168</v>
       </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" t="s">
-        <v>169</v>
-      </c>
-      <c r="I15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" t="s">
-        <v>172</v>
-      </c>
-      <c r="D16" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" t="s">
-        <v>173</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" t="s">
-        <v>174</v>
-      </c>
-      <c r="I16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>176</v>
-      </c>
-      <c r="B17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" t="s">
-        <v>178</v>
-      </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" t="s">
-        <v>179</v>
-      </c>
-      <c r="I17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" t="s">
         <v>181</v>
       </c>
-      <c r="B18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="I19" t="s">
         <v>182</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" t="s">
-        <v>116</v>
-      </c>
-      <c r="I18" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>184</v>
-      </c>
-      <c r="B19"/>
-      <c r="C19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" t="s">
-        <v>172</v>
-      </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" t="s">
-        <v>185</v>
-      </c>
-      <c r="I19" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
